--- a/biology/Botanique/Acokanthera_oblongifolia/Acokanthera_oblongifolia.xlsx
+++ b/biology/Botanique/Acokanthera_oblongifolia/Acokanthera_oblongifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acokanthera oblongifolia est une espèce d'arbuste originaire du sud de l'Afrique, de la famille des Apocynaceae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste pouvant atteindre 6 m de hauteur. Ses feuilles, coriaces et opposées, mesurent jusqu'à 12 cm de longueur et ont une forme ovale ou elliptique[1].
-Appareil reproducteur
-L'inflorescence est un corymbe de fleurs blanches pouvant mesurer jusqu'à 1,8 cm de diamètre. Ces fleurs, parfumées, dégagent une odeur rappelant le jasmin[1].
-Le fruit est une baie arrondie rouge-violacé très sombre, presque noire, de 3 cm de longueur. Chaque baie contient une ou deux graines[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste pouvant atteindre 6 m de hauteur. Ses feuilles, coriaces et opposées, mesurent jusqu'à 12 cm de longueur et ont une forme ovale ou elliptique.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet arbuste préfère les sols riches et humides et une situation partiellement ombragée.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est un corymbe de fleurs blanches pouvant mesurer jusqu'à 1,8 cm de diamètre. Ces fleurs, parfumées, dégagent une odeur rappelant le jasmin.
+Le fruit est une baie arrondie rouge-violacé très sombre, presque noire, de 3 cm de longueur. Chaque baie contient une ou deux graines.
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste préfère les sols riches et humides et une situation partiellement ombragée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acokanthera_oblongifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acokanthera_oblongifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Acokanthera oblongifolia et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toute la plante est toxique car elle contient, comme la plupart des espèces du genre Acokanthera, des glycosides cardiotoniques tels que l'acovenoside-A, l'ouabaïne, et des acolongiflorosides[2],[3]. Elle est actuellement utilisée comme plante ornementale, seule ou en bosquet.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute la plante est toxique car elle contient, comme la plupart des espèces du genre Acokanthera, des glycosides cardiotoniques tels que l'acovenoside-A, l'ouabaïne, et des acolongiflorosides,. Elle est actuellement utilisée comme plante ornementale, seule ou en bosquet.
 </t>
         </is>
       </c>
